--- a/Данные/МСК1.3.xlsx
+++ b/Данные/МСК1.3.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COUGAR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmdandy/Documents/PD-4/Данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A511227-B1F6-0C4D-AC4A-CEC9A2131C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
     <sheet name="Описание факторов" sheetId="3" r:id="rId2"/>
     <sheet name="Исходные данные" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -792,7 +793,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,12 +1046,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1087,6 +1082,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,9 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1134,7 +1135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3073" name="AutoShape 1" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761"/>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1176,7 +1183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3075" name="AutoShape 3" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761"/>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="blob:https://web.telegram.org/94f35193-5b97-4603-9606-18c8860a2761">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1218,7 +1231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1506,151 +1525,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1665,14 +1684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1680,29 +1699,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1748,11 +1767,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1998</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>65120</v>
       </c>
       <c r="C2" s="7">
@@ -1795,11 +1814,11 @@
         <v>1393.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>93800</v>
       </c>
       <c r="C3" s="13">
@@ -1843,11 +1862,11 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>156215</v>
       </c>
       <c r="C4" s="13">
@@ -1893,11 +1912,11 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>173839</v>
       </c>
       <c r="C5" s="13">
@@ -1927,7 +1946,7 @@
       <c r="K5" s="11">
         <v>34773.396726441213</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>5545</v>
       </c>
       <c r="M5" s="12">
@@ -1942,13 +1961,13 @@
       <c r="P5" s="2"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="U5" s="31"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U5" s="29"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>220396</v>
       </c>
       <c r="C6" s="13">
@@ -1993,23 +2012,23 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>269588</v>
       </c>
       <c r="C7" s="13">
         <v>2188231.5</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>2097784</v>
       </c>
       <c r="E7" s="12">
         <v>696011</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>2482.9</v>
       </c>
       <c r="G7" s="15">
@@ -2042,17 +2061,17 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>358531</v>
       </c>
       <c r="C8" s="13">
         <v>2853272.4</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>2607953</v>
       </c>
       <c r="E8" s="12">
@@ -2091,11 +2110,11 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>456025</v>
       </c>
       <c r="C9" s="13">
@@ -2140,11 +2159,11 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>590162.48229488998</v>
       </c>
       <c r="C10" s="13">
@@ -2189,11 +2208,11 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>775682.18767550483</v>
       </c>
       <c r="C11" s="13">
@@ -2229,7 +2248,7 @@
       <c r="M11" s="12">
         <v>84400</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>4236780</v>
       </c>
       <c r="O11" s="14">
@@ -2237,11 +2256,11 @@
       </c>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>962468</v>
       </c>
       <c r="C12" s="13">
@@ -2277,7 +2296,7 @@
       <c r="M12" s="12">
         <v>115500</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>4980090</v>
       </c>
       <c r="O12" s="14">
@@ -2286,11 +2305,11 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>742422</v>
       </c>
       <c r="C13" s="13">
@@ -2326,7 +2345,7 @@
       <c r="M13" s="12">
         <v>70900</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>6293522</v>
       </c>
       <c r="O13" s="14">
@@ -2334,11 +2353,11 @@
       </c>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>732760.60400000005</v>
       </c>
       <c r="C14" s="13">
@@ -2374,7 +2393,7 @@
       <c r="M14" s="12">
         <v>91000</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <v>8319415</v>
       </c>
       <c r="O14" s="14">
@@ -2383,11 +2402,11 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>856424.07900000003</v>
       </c>
       <c r="C15" s="13">
@@ -2423,7 +2442,7 @@
       <c r="M15" s="12">
         <v>117100</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>10151635</v>
       </c>
       <c r="O15" s="14">
@@ -2432,11 +2451,11 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>1220096.5919999999</v>
       </c>
       <c r="C16" s="13">
@@ -2472,7 +2491,7 @@
       <c r="M16" s="12">
         <v>123100</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>11994894</v>
       </c>
       <c r="O16" s="14">
@@ -2481,11 +2500,11 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>1413093.702</v>
       </c>
       <c r="C17" s="13">
@@ -2494,10 +2513,10 @@
       <c r="D17" s="12">
         <v>7930101</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>2136458</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="20">
         <v>108107</v>
       </c>
       <c r="G17" s="16">
@@ -2521,7 +2540,7 @@
       <c r="M17" s="12">
         <v>135100</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>14385851</v>
       </c>
       <c r="O17" s="14">
@@ -2530,11 +2549,11 @@
       <c r="P17" s="11"/>
       <c r="S17" s="11"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>1541884.3659999999</v>
       </c>
       <c r="C18" s="13">
@@ -2543,7 +2562,7 @@
       <c r="D18" s="12">
         <v>8089881</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>153311</v>
       </c>
       <c r="F18" s="12">
@@ -2570,27 +2589,27 @@
       <c r="M18" s="12">
         <v>125900</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>16000367</v>
       </c>
       <c r="O18" s="14">
         <v>12542</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>1543600.9539999999</v>
       </c>
       <c r="C19" s="13">
         <v>13520862.9</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>8908736</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>2631789</v>
       </c>
       <c r="F19" s="12">
@@ -2617,30 +2636,30 @@
       <c r="M19" s="12">
         <v>78600</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>20162741</v>
       </c>
       <c r="O19" s="14">
         <v>14413</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>1712239.426</v>
       </c>
       <c r="C20" s="12">
         <v>15121534.199999999</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <v>9193008</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>3701406</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>65314</v>
       </c>
       <c r="G20" s="16">
@@ -2664,30 +2683,30 @@
       <c r="M20" s="12">
         <v>76229.7</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>20909815</v>
       </c>
       <c r="O20" s="14">
         <v>15092</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>2007707.66</v>
       </c>
       <c r="C21" s="12">
         <v>16538189.5</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>9776264</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>2912421</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>85326</v>
       </c>
       <c r="G21" s="16">
@@ -2711,30 +2730,30 @@
       <c r="M21" s="12">
         <v>98641.4</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>22718576</v>
       </c>
       <c r="O21" s="14">
         <v>15397</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>2485175.7439999999</v>
       </c>
       <c r="C22" s="12">
         <v>18777726</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="25">
         <v>10539984</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>3839428</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="20">
         <v>69873</v>
       </c>
       <c r="G22" s="16">
@@ -2758,30 +2777,30 @@
       <c r="M22" s="12">
         <v>103426.8</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>22271453</v>
       </c>
       <c r="O22" s="14">
         <v>16087</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>3268623.1680000001</v>
       </c>
       <c r="C23" s="12">
         <v>19797064.300000001</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>11517283</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>5136054</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <v>93903</v>
       </c>
       <c r="G23" s="16">
@@ -2805,27 +2824,27 @@
       <c r="M23" s="12">
         <v>107348.1</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>26580520</v>
       </c>
       <c r="O23" s="14">
         <v>16843</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>3839394.4169999999</v>
       </c>
       <c r="C24" s="12">
         <v>19856674.5</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="25">
         <v>11872014</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>2765564</v>
       </c>
       <c r="F24" s="12">
@@ -2840,7 +2859,7 @@
       <c r="I24" s="13">
         <v>39</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>427329.33739999996</v>
       </c>
       <c r="K24" s="12">
@@ -2852,24 +2871,24 @@
       <c r="M24" s="12">
         <v>102899.2</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>30364225</v>
       </c>
       <c r="O24" s="14">
         <v>17841</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2021</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>4868342.125</v>
       </c>
       <c r="C25" s="12">
         <v>23323000</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>13479555</v>
       </c>
       <c r="E25" s="12">
@@ -2902,12 +2921,12 @@
       <c r="N25" s="12">
         <v>37955281</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="26">
         <v>18029</v>
       </c>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2022</v>
       </c>
@@ -2950,114 +2969,114 @@
       <c r="N26" s="11">
         <v>42471959</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="30">
         <v>18714</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:19" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="N27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35" t="s">
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="38" t="s">
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+    </row>
+    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="38" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="38" t="s">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="39"/>
-    </row>
-    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="N29" s="28"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -3066,68 +3085,68 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>53</v>
       </c>
@@ -3137,31 +3156,31 @@
     <mergeCell ref="A27:A29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="Ссылка на данные"/>
-    <hyperlink ref="G27" r:id="rId2" display="https://www.gks.ru/bgd/regl/B07_36/IssWWW.exe/Stg/d01/03-04.htm"/>
-    <hyperlink ref="B27" r:id="rId3" display="https://www.gks.ru/bgd/regl/B11_14p/IssWWW.exe/Stg/d03/24-01.htm"/>
-    <hyperlink ref="B28" r:id="rId4" display="https://rosstat.gov.ru/storage/mediabank/Invest_sub.xlsx"/>
-    <hyperlink ref="D28" r:id="rId5" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="D29" r:id="rId6" display="https://mosstat.gks.ru/storage/mediabank/Динамика%20денежных%20доходов%20населения%20г.%20Москвы%20за%202014-2021%20гг..xlsx"/>
-    <hyperlink ref="G28" r:id="rId7" display="https://rosstat.gov.ru/storage/mediabank/05-05.xls"/>
-    <hyperlink ref="G29" r:id="rId8" display="https://rosstat.gov.ru/storage/mediabank/05-05_2017-2021.xls"/>
-    <hyperlink ref="I27" r:id="rId9" display="https://mosstat.gks.ru/storage/mediabank/st_izn_of(29).xlsx"/>
-    <hyperlink ref="K28" r:id="rId10" display="https://rosstat.gov.ru/storage/mediabank/innov-3.xls"/>
-    <hyperlink ref="J27" r:id="rId11" display="https://rosstat.gov.ru/storage/mediabank/nauka-5.xlsx"/>
-    <hyperlink ref="L28" r:id="rId12" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx"/>
-    <hyperlink ref="M29" r:id="rId13" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx"/>
-    <hyperlink ref="O27" r:id="rId14" display="https://data.mos.ru/opendata/dinamika-izmeneniya-velichiny-projitochnogo-minimuma"/>
-    <hyperlink ref="H27" r:id="rId15"/>
-    <hyperlink ref="K27" r:id="rId16" display="http://www.m-economy.ru/art.php?nArtId=3778"/>
-    <hyperlink ref="M28" r:id="rId17" display="https://istmat.org/files/uploads/54000/moskovskiy_statisticheskiy_ezhegodnik_2018.pdf"/>
-    <hyperlink ref="L27" r:id="rId18" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="M27" r:id="rId19" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf"/>
-    <hyperlink ref="N27" r:id="rId20" display="https://www.asv.org.ru/agency/statistics?group=&amp;regions=45000&amp;year=2005,2021"/>
-    <hyperlink ref="F27" r:id="rId21" display="https://ehd.moscow/index.php?id_src=355&amp;id_ind=2312&amp;id_tab=1&amp;action=show_details_open&amp;show=inds&amp;show_full=1&amp;exist=1&amp;source=-9993&amp;id_root[0]=355_355&amp;id_root[1]=355_2312"/>
-    <hyperlink ref="F28" r:id="rId22" display="https://rosstat.gov.ru/folder/210/document/13204"/>
-    <hyperlink ref="D27" r:id="rId23"/>
-    <hyperlink ref="E28" r:id="rId24"/>
-    <hyperlink ref="E27" r:id="rId25" display="https://istmat.org/files/uploads/53999/moskovskiy_statisticheskiy_ezhegodnik_2010.pdf"/>
+    <hyperlink ref="C27" r:id="rId1" display="Ссылка на данные" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G27" r:id="rId2" display="https://www.gks.ru/bgd/regl/B07_36/IssWWW.exe/Stg/d01/03-04.htm" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B27" r:id="rId3" display="https://www.gks.ru/bgd/regl/B11_14p/IssWWW.exe/Stg/d03/24-01.htm" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId4" display="https://rosstat.gov.ru/storage/mediabank/Invest_sub.xlsx" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D29" r:id="rId6" display="https://mosstat.gks.ru/storage/mediabank/Динамика%20денежных%20доходов%20населения%20г.%20Москвы%20за%202014-2021%20гг..xlsx" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G28" r:id="rId7" display="https://rosstat.gov.ru/storage/mediabank/05-05.xls" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G29" r:id="rId8" display="https://rosstat.gov.ru/storage/mediabank/05-05_2017-2021.xls" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="I27" r:id="rId9" display="https://mosstat.gks.ru/storage/mediabank/st_izn_of(29).xlsx" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K28" r:id="rId10" display="https://rosstat.gov.ru/storage/mediabank/innov-3.xls" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="J27" r:id="rId11" display="https://rosstat.gov.ru/storage/mediabank/nauka-5.xlsx" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="L28" r:id="rId12" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="M29" r:id="rId13" display="https://mosstat.gks.ru/storage/mediabank/ZiiqV8YR/Товарная%20структура%20экспорта%20и%20импорта%20г.%20Москвы%20за%202016-2020%20гг..docx" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="O27" r:id="rId14" display="https://data.mos.ru/opendata/dinamika-izmeneniya-velichiny-projitochnogo-minimuma" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="H27" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K27" r:id="rId16" display="http://www.m-economy.ru/art.php?nArtId=3778" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="M28" r:id="rId17" display="https://istmat.org/files/uploads/54000/moskovskiy_statisticheskiy_ezhegodnik_2018.pdf" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L27" r:id="rId18" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="M27" r:id="rId19" display="https://mosstat.gks.ru/storage/mediabank/Ежегодник_2014.pdf" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="N27" r:id="rId20" display="https://www.asv.org.ru/agency/statistics?group=&amp;regions=45000&amp;year=2005,2021" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="F27" r:id="rId21" display="https://ehd.moscow/index.php?id_src=355&amp;id_ind=2312&amp;id_tab=1&amp;action=show_details_open&amp;show=inds&amp;show_full=1&amp;exist=1&amp;source=-9993&amp;id_root[0]=355_355&amp;id_root[1]=355_2312" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="F28" r:id="rId22" display="https://rosstat.gov.ru/folder/210/document/13204" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="E28" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="E27" r:id="rId25" display="https://istmat.org/files/uploads/53999/moskovskiy_statisticheskiy_ezhegodnik_2010.pdf" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Данные/МСК1.3.xlsx
+++ b/Данные/МСК1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmdandy/Documents/PD-4/Данные/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmdandy/GitHub/PD-4/Данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A511227-B1F6-0C4D-AC4A-CEC9A2131C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB003929-FDCF-F443-A014-D5BE49D5C01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульник" sheetId="2" r:id="rId1"/>
@@ -794,7 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,13 +828,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1009,58 +1002,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,9 +1046,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1091,14 +1066,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,6 +1094,999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Исходные данные'!$L$2:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6 171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7 260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9940</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>228300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>229030</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118194,6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148623,4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197017,5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184295,2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135211</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>205600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>295500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Исходные данные'!$P$2:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80CD-9342-9C3F-23EDBF5F1038}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1959510816"/>
+        <c:axId val="1959513136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1959510816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959513136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1959513136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959510816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1258,6 +2229,47 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0355C0D9-7B78-8A71-82A9-BF995BCF753B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1540,102 +2552,102 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1703,7 +2715,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="O26" sqref="B2:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1721,7 +2733,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1771,1312 +2783,1357 @@
       <c r="A2" s="1">
         <v>1998</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="15">
         <v>65120</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>328497.90000000002</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>401044</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>120334</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>803.2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>4767</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>1212184</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>10427</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>10759</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>111458</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="5">
         <v>1393.3</v>
+      </c>
+      <c r="P2" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="6">
         <v>93800</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="7">
         <v>695059.8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3">
         <v>577671</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>173332</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <v>787.6</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>4962</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>1272744</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="7">
         <v>35.200000000000003</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3">
         <v>17310</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="7">
         <v>17861</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3">
         <v>185861</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="8">
         <v>1807.8</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="6">
         <v>156215</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>1159034</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4">
         <v>962057</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4">
         <v>289037</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4">
         <v>1472.8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4">
         <v>5277</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4">
         <v>1444737</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="7">
         <v>32.4</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4">
         <v>24927</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4">
         <v>25720.2</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4">
         <v>8067</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4">
         <v>9194</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4">
         <v>309534</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="8">
         <v>2185</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="P4" s="32">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="6">
         <v>173839</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>1370182.8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5">
         <v>1257513</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>351188</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5">
         <v>1154.5999999999999</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5">
         <v>5712.2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5">
         <v>1841258</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>30.4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5">
         <v>33701</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <v>34773.396726441213</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5">
         <v>5545</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5">
         <v>12637</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5">
         <v>418289</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="8">
         <v>2385.2600000000002</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="U5" s="29"/>
+      <c r="P5" s="2">
+        <v>4</v>
+      </c>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="6">
         <v>220396</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>1767476.7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
         <v>1544402</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>380535</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6">
         <v>1508.7</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6">
         <v>5832.4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6">
         <v>2255912</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="7">
         <v>35.1</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6">
         <v>46034</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <v>25688</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6">
         <v>6932</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6">
         <v>13817</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6">
         <v>589139</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="8">
         <v>2918.55</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="P6" s="32">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="6">
         <v>269588</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>2188231.5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>2097784</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>696011</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="13">
         <v>2482.9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <v>5999.3</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7">
         <v>3297504</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="7">
         <v>33</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7">
         <v>58073</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <v>23993.4</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7">
         <v>8376</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7">
         <v>17785</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7">
         <v>879313</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="8">
         <v>3208.02</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="P7" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="6">
         <v>358531</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>2853272.4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8">
         <v>2607953</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>826217</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>1857.2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8">
         <v>6078.7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8">
         <v>3905553</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8">
         <v>68092</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8">
         <v>24702.3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8">
         <v>9347</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8">
         <v>23988</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8">
         <v>1352790</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="8">
         <v>3703.57</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="P8" s="32">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="6">
         <v>456025</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>4135154.6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>3119433</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>1209990</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>2060.4</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9">
         <v>66683</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9">
         <v>5346984</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9">
         <v>85240</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9">
         <v>28811</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9">
         <v>9940</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9">
         <v>32088</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9">
         <v>2181920</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="8">
         <v>4171.8</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="P9" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="6">
         <v>590162.48229488998</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>5260232.8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>3731494</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>2797692</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <v>4530.7</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>67047</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10">
         <v>6142520</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="7">
         <v>47</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10">
         <v>105013</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10">
         <v>37211.5</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10">
         <v>12515</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10">
         <v>47106</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10">
         <v>3101710</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="8">
         <v>5121</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="P10" s="32">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="6">
         <v>775682.18767550483</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>6696259.0999999996</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>4453175</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11">
         <v>2681016</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>15656</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>67922</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11">
         <v>9506888</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11">
         <v>141859</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11">
         <v>50567.9</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11">
         <v>124800</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11">
         <v>84400</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11">
         <v>4236780</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="8">
         <v>5855</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="6">
         <v>962468</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="7">
         <v>8248652</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>4305879</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12">
         <v>979778</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12">
         <v>8611.9</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>68397</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12">
         <v>14877108</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12">
         <v>165775</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="10">
         <v>43904.4</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12">
         <v>174200</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12">
         <v>115500</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12">
         <v>4980090</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="8">
         <v>6648</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="P12" s="32">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="6">
         <v>742422</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>7126972.4000000004</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>5449048</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>1933519</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13">
         <v>5657.4</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>67418</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>15356818</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13">
         <v>194820</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13">
         <v>35743.1</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13">
         <v>113200</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13">
         <v>70900</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13">
         <v>6293522</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="8">
         <v>7406</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="P13" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="6">
         <v>732760.60400000005</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>8375863.7999999998</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
         <v>6058819</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14">
         <v>2243369</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14">
         <v>3793.5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14">
         <v>71493.100000000006</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14">
         <v>17905142</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="7">
         <v>42</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14">
         <v>194439.24400000001</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14">
         <v>64543.1921</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14">
         <v>143800</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14">
         <v>91000</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14">
         <v>8319415</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="8">
         <v>8656</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="P14" s="32">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="6">
         <v>856424.07900000003</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>9948772.8000000007</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
         <v>6573744</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15">
         <v>2434246</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15">
         <v>159868</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15">
         <v>71900.800000000003</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15">
         <v>20169118</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15">
         <v>219277.2444</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15">
         <v>158892.57580000002</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15">
         <v>188000</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15">
         <v>117100</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15">
         <v>10151635</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="8">
         <v>9128</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="P15" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="6">
         <v>1220096.5919999999</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>10666870.5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16">
         <v>6998475</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16">
         <v>2769900</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16">
         <v>82607</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16">
         <v>72197.8</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16">
         <v>23445895</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="7">
         <v>43</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16">
         <v>245646.10630000001</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16">
         <v>494532.2108</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16">
         <v>199800</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16">
         <v>123100</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <v>11994894</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="8">
         <v>9747</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P16" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="6">
         <v>1413093.702</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>11814897.4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17">
         <v>7930101</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17">
         <v>2136458</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17">
         <v>108107</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17">
         <v>72176.399999999994</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17">
         <v>26546945</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17">
         <v>264751.70600000001</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17">
         <v>686704.57780000009</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17">
         <v>228300</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17">
         <v>135100</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <v>14385851</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="8">
         <v>10965</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="6">
         <v>1541884.3659999999</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>12779525.699999999</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18">
         <v>8089881</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18">
         <v>153311</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18">
         <v>77801</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18">
         <v>72080.600000000006</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18">
         <v>28890410</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18">
         <v>298248.96549999999</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18">
         <v>552039.1</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18">
         <v>229030</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18">
         <v>125900</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <v>16000367</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="8">
         <v>12542</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P18" s="32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="6">
         <v>1543600.9539999999</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>13520862.9</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19">
         <v>8908736</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19">
         <v>2631789</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19">
         <v>66718</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19">
         <v>72424.899999999994</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19">
         <v>30078000</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19">
         <v>322785.09999999998</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19">
         <v>851583.36</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19">
         <v>149110</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19">
         <v>78600</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19">
         <v>20162741</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="8">
         <v>14413</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="6">
         <v>1712239.426</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>15121534.199999999</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20">
         <v>9193008</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20">
         <v>3701406</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20">
         <v>65314</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20">
         <v>72065.2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20">
         <v>36338093</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20">
         <v>330199.09999999998</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20">
         <v>910869.11360000004</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20">
         <v>118194.6</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20">
         <v>76229.7</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20">
         <v>20909815</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="8">
         <v>15092</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P20" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="6">
         <v>2007707.66</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>16538189.5</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21">
         <v>9776264</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21">
         <v>2912421</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21">
         <v>85326</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21">
         <v>71842.7</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21">
         <v>36604923</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="7">
         <v>47.3</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21">
         <v>358214.8</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21">
         <v>248998.8</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21">
         <v>148623.4</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21">
         <v>98641.4</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21">
         <v>22718576</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="8">
         <v>15397</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="6">
         <v>2485175.7439999999</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>18777726</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22">
         <v>10539984</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22">
         <v>3839428</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22">
         <v>69873</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22">
         <v>71561.7</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22">
         <v>40602319</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="7">
         <v>46.6</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22">
         <v>350894.2</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22">
         <v>283544.60570000001</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22">
         <v>197017.5</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22">
         <v>103426.8</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22">
         <v>22271453</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="8">
         <v>16087</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P22" s="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="6">
         <v>3268623.1680000001</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>19797064.300000001</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23">
         <v>11517283</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23">
         <v>5136054</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23">
         <v>93903</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23">
         <v>71064.5</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23">
         <v>70029739</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23">
         <v>398462.4</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23">
         <v>565805.8848</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23">
         <v>184295.2</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23">
         <v>107348.1</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23">
         <v>26580520</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="8">
         <v>16843</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="6">
         <v>3839394.4169999999</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>19856674.5</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24">
         <v>11872014</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24">
         <v>2765564</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24">
         <v>126244</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24">
         <v>69550.3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24">
         <v>66739526</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="7">
         <v>39</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24">
         <v>427329.33739999996</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24">
         <v>626603.38839999994</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24">
         <v>135211</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24">
         <v>102899.2</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24">
         <v>30364225</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="8">
         <v>17841</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P24" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2021</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="6">
         <v>4868342.125</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>23323000</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25">
         <v>13479555</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25">
         <v>6925016</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25">
         <v>103800</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25">
         <v>70817.899999999994</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25">
         <v>71721306</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="7">
         <v>40.5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25">
         <v>460696.31449999998</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25">
         <v>795297</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25">
         <v>205600</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25">
         <v>129000</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25">
         <v>37955281</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="16">
         <v>18029</v>
       </c>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2022</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>5082549.2</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26">
         <v>26236000</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26">
         <v>1577107</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26">
         <v>7686767</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26">
         <v>115425</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26">
         <v>78324.5</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26">
         <v>79897534</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26">
         <v>38.4</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26">
         <v>1378900</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26">
         <v>898685.6</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26">
         <v>295500</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26">
         <v>133000</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26">
         <v>42471959</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="8">
         <v>18714</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="P26" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="N27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="33" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-    </row>
-    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="36" t="s">
+      <c r="N28" s="1"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="36" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="36" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="37"/>
-    </row>
-    <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+      <c r="N29" s="18"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>56</v>
       </c>
@@ -3085,11 +4142,11 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -3183,8 +4240,10 @@
     <hyperlink ref="E27" r:id="rId25" display="https://istmat.org/files/uploads/53999/moskovskiy_statisticheskiy_ezhegodnik_2010.pdf" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="I8:I20" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>